--- a/Feature-Analysis/Resize Feature/s_09_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_09_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.60442129627</v>
+        <v>738157.60442129627</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.60481481487</v>
+        <v>738157.60481481487</v>
       </c>
       <c r="C3" s="0">
         <v>34.000006690621376</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.60521990736</v>
+        <v>738157.60521990736</v>
       </c>
       <c r="C4" s="0">
         <v>68.999997898936272</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.60572916665</v>
+        <v>738157.60572916665</v>
       </c>
       <c r="C5" s="0">
         <v>113.00000064074993</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.60599537042</v>
+        <v>738157.60599537042</v>
       </c>
       <c r="C6" s="0">
         <v>136.00000664591789</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.6063888889</v>
+        <v>738157.6063888889</v>
       </c>
       <c r="C7" s="0">
         <v>170.00000327825546</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.60665509256</v>
+        <v>738157.60665509256</v>
       </c>
       <c r="C8" s="0">
         <v>192.99999922513962</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.60709490743</v>
+        <v>738157.60709490743</v>
       </c>
       <c r="C9" s="0">
         <v>231.00000433623791</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.60734953708</v>
+        <v>738157.60734953708</v>
       </c>
       <c r="C10" s="0">
         <v>253.00000570714474</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.60789351852</v>
+        <v>738157.60789351852</v>
       </c>
       <c r="C11" s="0">
         <v>300.00000223517418</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.60815972218</v>
+        <v>738157.60815972218</v>
       </c>
       <c r="C12" s="0">
         <v>322.99999818205833</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.60856481479</v>
+        <v>738157.60856481479</v>
       </c>
       <c r="C13" s="0">
         <v>357.99999944865704</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.60881944443</v>
+        <v>738157.60881944443</v>
       </c>
       <c r="C14" s="0">
         <v>380.00000081956387</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.60923611117</v>
+        <v>738157.60923611117</v>
       </c>
       <c r="C15" s="0">
         <v>416.0000067204237</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.60951388883</v>
+        <v>738157.60951388883</v>
       </c>
       <c r="C16" s="0">
         <v>439.99999724328518</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.60990740743</v>
+        <v>738157.60990740743</v>
       </c>
       <c r="C17" s="0">
         <v>474.00000393390656</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.61033564818</v>
+        <v>738157.61033564818</v>
       </c>
       <c r="C18" s="0">
         <v>511.00000441074371</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.61062499997</v>
+        <v>738157.61062499997</v>
       </c>
       <c r="C19" s="0">
         <v>535.99999956786633</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.61103009258</v>
+        <v>738157.61103009258</v>
       </c>
       <c r="C20" s="0">
         <v>571.00000083446503</v>
@@ -14892,7 +14892,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.6121875</v>
+        <v>738157.6121875</v>
       </c>
       <c r="C21" s="0">
         <v>671.00000157952309</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.6121875</v>
+        <v>738157.6121875</v>
       </c>
       <c r="C22" s="0">
         <v>671.00000157952309</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.6121875</v>
+        <v>738157.6121875</v>
       </c>
       <c r="C23" s="0">
         <v>671.00000157952309</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.6127662037</v>
+        <v>738157.6127662037</v>
       </c>
       <c r="C24" s="0">
         <v>721.00000195205212</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.6127662037</v>
+        <v>738157.6127662037</v>
       </c>
       <c r="C25" s="0">
         <v>721.00000195205212</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.61339120369</v>
+        <v>738157.61339120369</v>
       </c>
       <c r="C26" s="0">
         <v>775.00000074505806</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.61354166665</v>
+        <v>738157.61354166665</v>
       </c>
       <c r="C27" s="0">
         <v>788.00000064074993</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.61409722222</v>
+        <v>738157.61409722222</v>
       </c>
       <c r="C28" s="0">
         <v>836.0000018030405</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.61425925931</v>
+        <v>738157.61425925931</v>
       </c>
       <c r="C29" s="0">
         <v>850.00000633299351</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.61484953703</v>
+        <v>738157.61484953703</v>
       </c>
       <c r="C30" s="0">
         <v>901.00000128149986</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.61498842598</v>
+        <v>738157.61498842598</v>
       </c>
       <c r="C31" s="0">
         <v>913.00000660121441</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.61555555556</v>
+        <v>738157.61555555556</v>
       </c>
       <c r="C32" s="0">
         <v>962.00000233948231</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.61571759265</v>
+        <v>738157.61571759265</v>
       </c>
       <c r="C33" s="0">
         <v>976.00000686943531</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.61613425927</v>
+        <v>738157.61613425927</v>
       </c>
       <c r="C34" s="0">
         <v>1012.0000027120113</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.61641203705</v>
+        <v>738157.61641203705</v>
       </c>
       <c r="C35" s="0">
         <v>1036.0000032931566</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.61686342594</v>
+        <v>738157.61686342594</v>
       </c>
       <c r="C36" s="0">
         <v>1075.0000029802322</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.61715277773</v>
+        <v>738157.61715277773</v>
       </c>
       <c r="C37" s="0">
         <v>1099.9999981373549</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.61760416662</v>
+        <v>738157.61760416662</v>
       </c>
       <c r="C38" s="0">
         <v>1138.9999978244305</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.61815972219</v>
+        <v>738157.61815972219</v>
       </c>
       <c r="C39" s="0">
         <v>1186.999998986721</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.61831018515</v>
+        <v>738157.61831018515</v>
       </c>
       <c r="C40" s="0">
         <v>1199.9999988824129</v>
